--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl25-Ccr9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl25-Ccr9.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.804102</v>
+        <v>5.230988666666666</v>
       </c>
       <c r="H2">
-        <v>14.412306</v>
+        <v>15.692966</v>
       </c>
       <c r="I2">
-        <v>0.2049869746002893</v>
+        <v>0.2129406655351238</v>
       </c>
       <c r="J2">
-        <v>0.2049869746002893</v>
+        <v>0.2129406655351238</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.238502</v>
+        <v>1.101288666666667</v>
       </c>
       <c r="N2">
-        <v>3.715506</v>
+        <v>3.303866</v>
       </c>
       <c r="O2">
-        <v>0.2117788764206845</v>
+        <v>0.2351204158555016</v>
       </c>
       <c r="P2">
-        <v>0.2117788764206845</v>
+        <v>0.2351204158555016</v>
       </c>
       <c r="Q2">
-        <v>5.949889935204</v>
+        <v>5.760828534061778</v>
       </c>
       <c r="R2">
-        <v>53.549009416836</v>
+        <v>51.847456806556</v>
       </c>
       <c r="S2">
-        <v>0.04341191116172466</v>
+        <v>0.05006669783316557</v>
       </c>
       <c r="T2">
-        <v>0.04341191116172466</v>
+        <v>0.05006669783316556</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.804102</v>
+        <v>5.230988666666666</v>
       </c>
       <c r="H3">
-        <v>14.412306</v>
+        <v>15.692966</v>
       </c>
       <c r="I3">
-        <v>0.2049869746002893</v>
+        <v>0.2129406655351238</v>
       </c>
       <c r="J3">
-        <v>0.2049869746002893</v>
+        <v>0.2129406655351238</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>5.086101999999999</v>
       </c>
       <c r="O3">
-        <v>0.2899010166908616</v>
+        <v>0.3619536680130181</v>
       </c>
       <c r="P3">
-        <v>0.2899010166908616</v>
+        <v>0.361953668013018</v>
       </c>
       <c r="Q3">
-        <v>8.144717596801334</v>
+        <v>8.868447306503553</v>
       </c>
       <c r="R3">
-        <v>73.302458371212</v>
+        <v>79.81602575853198</v>
       </c>
       <c r="S3">
-        <v>0.05942593234500768</v>
+        <v>0.0770746549595713</v>
       </c>
       <c r="T3">
-        <v>0.05942593234500768</v>
+        <v>0.07707465495957129</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.804102</v>
+        <v>5.230988666666666</v>
       </c>
       <c r="H4">
-        <v>14.412306</v>
+        <v>15.692966</v>
       </c>
       <c r="I4">
-        <v>0.2049869746002893</v>
+        <v>0.2129406655351238</v>
       </c>
       <c r="J4">
-        <v>0.2049869746002893</v>
+        <v>0.2129406655351238</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7463296666666667</v>
+        <v>0.9788929999999999</v>
       </c>
       <c r="N4">
-        <v>2.238989</v>
+        <v>2.936679</v>
       </c>
       <c r="O4">
-        <v>0.1276193807083805</v>
+        <v>0.2089894649825745</v>
       </c>
       <c r="P4">
-        <v>0.1276193807083805</v>
+        <v>0.2089894649825745</v>
       </c>
       <c r="Q4">
-        <v>3.585443844292667</v>
+        <v>5.120578188879332</v>
       </c>
       <c r="R4">
-        <v>32.268994598634</v>
+        <v>46.08520369991399</v>
       </c>
       <c r="S4">
-        <v>0.02616031075177344</v>
+        <v>0.04450235576321884</v>
       </c>
       <c r="T4">
-        <v>0.02616031075177344</v>
+        <v>0.04450235576321884</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.804102</v>
+        <v>5.230988666666666</v>
       </c>
       <c r="H5">
-        <v>14.412306</v>
+        <v>15.692966</v>
       </c>
       <c r="I5">
-        <v>0.2049869746002893</v>
+        <v>0.2129406655351238</v>
       </c>
       <c r="J5">
-        <v>0.2049869746002893</v>
+        <v>0.2129406655351238</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.167891333333333</v>
+        <v>0.9083856666666668</v>
       </c>
       <c r="N5">
-        <v>6.503674</v>
+        <v>2.725157</v>
       </c>
       <c r="O5">
-        <v>0.3707007261800733</v>
+        <v>0.1939364511489059</v>
       </c>
       <c r="P5">
-        <v>0.3707007261800732</v>
+        <v>0.1939364511489059</v>
       </c>
       <c r="Q5">
-        <v>10.41477109024934</v>
+        <v>4.751755127295778</v>
       </c>
       <c r="R5">
-        <v>93.73293981224401</v>
+        <v>42.765796145662</v>
       </c>
       <c r="S5">
-        <v>0.07598882034178346</v>
+        <v>0.04129695697916803</v>
       </c>
       <c r="T5">
-        <v>0.07598882034178345</v>
+        <v>0.04129695697916803</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>25.467825</v>
       </c>
       <c r="I6">
-        <v>0.3622301938634672</v>
+        <v>0.345577477529236</v>
       </c>
       <c r="J6">
-        <v>0.3622301938634672</v>
+        <v>0.3455774775292359</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.238502</v>
+        <v>1.101288666666667</v>
       </c>
       <c r="N6">
-        <v>3.715506</v>
+        <v>3.303866</v>
       </c>
       <c r="O6">
-        <v>0.2117788764206845</v>
+        <v>0.2351204158555016</v>
       </c>
       <c r="P6">
-        <v>0.2117788764206845</v>
+        <v>0.2351204158555016</v>
       </c>
       <c r="Q6">
-        <v>10.51398406605</v>
+        <v>9.349142345716666</v>
       </c>
       <c r="R6">
-        <v>94.62585659444998</v>
+        <v>84.14228111145</v>
       </c>
       <c r="S6">
-        <v>0.07671270346205182</v>
+        <v>0.08125232022696921</v>
       </c>
       <c r="T6">
-        <v>0.07671270346205182</v>
+        <v>0.0812523202269692</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>25.467825</v>
       </c>
       <c r="I7">
-        <v>0.3622301938634672</v>
+        <v>0.345577477529236</v>
       </c>
       <c r="J7">
-        <v>0.3622301938634672</v>
+        <v>0.3455774775292359</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>5.086101999999999</v>
       </c>
       <c r="O7">
-        <v>0.2899010166908616</v>
+        <v>0.3619536680130181</v>
       </c>
       <c r="P7">
-        <v>0.2899010166908616</v>
+        <v>0.361953668013018</v>
       </c>
       <c r="Q7">
         <v>14.39243951868333</v>
@@ -883,10 +883,10 @@
         <v>129.53195566815</v>
       </c>
       <c r="S7">
-        <v>0.105010901477147</v>
+        <v>0.1250830355743933</v>
       </c>
       <c r="T7">
-        <v>0.105010901477147</v>
+        <v>0.1250830355743933</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>25.467825</v>
       </c>
       <c r="I8">
-        <v>0.3622301938634672</v>
+        <v>0.345577477529236</v>
       </c>
       <c r="J8">
-        <v>0.3622301938634672</v>
+        <v>0.3455774775292359</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7463296666666667</v>
+        <v>0.9788929999999999</v>
       </c>
       <c r="N8">
-        <v>2.238989</v>
+        <v>2.936679</v>
       </c>
       <c r="O8">
-        <v>0.1276193807083805</v>
+        <v>0.2089894649825745</v>
       </c>
       <c r="P8">
-        <v>0.1276193807083805</v>
+        <v>0.2089894649825745</v>
       </c>
       <c r="Q8">
-        <v>6.335797780991666</v>
+        <v>8.310091872574999</v>
       </c>
       <c r="R8">
-        <v>57.022180028925</v>
+        <v>74.79082685317499</v>
       </c>
       <c r="S8">
-        <v>0.0462275930147323</v>
+        <v>0.07222205213886267</v>
       </c>
       <c r="T8">
-        <v>0.0462275930147323</v>
+        <v>0.07222205213886265</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>25.467825</v>
       </c>
       <c r="I9">
-        <v>0.3622301938634672</v>
+        <v>0.345577477529236</v>
       </c>
       <c r="J9">
-        <v>0.3622301938634672</v>
+        <v>0.3455774775292359</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.167891333333333</v>
+        <v>0.9083856666666668</v>
       </c>
       <c r="N9">
-        <v>6.503674</v>
+        <v>2.725157</v>
       </c>
       <c r="O9">
-        <v>0.3707007261800733</v>
+        <v>0.1939364511489059</v>
       </c>
       <c r="P9">
-        <v>0.3707007261800732</v>
+        <v>0.1939364511489059</v>
       </c>
       <c r="Q9">
-        <v>18.40382569878333</v>
+        <v>7.711535730391667</v>
       </c>
       <c r="R9">
-        <v>165.63443128905</v>
+        <v>69.40382157352501</v>
       </c>
       <c r="S9">
-        <v>0.134278995909536</v>
+        <v>0.0670200695890108</v>
       </c>
       <c r="T9">
-        <v>0.134278995909536</v>
+        <v>0.06702006958901077</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.823586333333332</v>
+        <v>8.418577333333333</v>
       </c>
       <c r="H10">
-        <v>23.470759</v>
+        <v>25.255732</v>
       </c>
       <c r="I10">
-        <v>0.3338258207244912</v>
+        <v>0.3426995496362334</v>
       </c>
       <c r="J10">
-        <v>0.3338258207244912</v>
+        <v>0.3426995496362334</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.238502</v>
+        <v>1.101288666666667</v>
       </c>
       <c r="N10">
-        <v>3.715506</v>
+        <v>3.303866</v>
       </c>
       <c r="O10">
-        <v>0.2117788764206845</v>
+        <v>0.2351204158555016</v>
       </c>
       <c r="P10">
-        <v>0.2117788764206845</v>
+        <v>0.2351204158555016</v>
       </c>
       <c r="Q10">
-        <v>9.689527321005999</v>
+        <v>9.271283806656889</v>
       </c>
       <c r="R10">
-        <v>87.20574588905399</v>
+        <v>83.44155425991201</v>
       </c>
       <c r="S10">
-        <v>0.07069725723324563</v>
+        <v>0.0805756606239643</v>
       </c>
       <c r="T10">
-        <v>0.07069725723324563</v>
+        <v>0.08057566062396429</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.823586333333332</v>
+        <v>8.418577333333333</v>
       </c>
       <c r="H11">
-        <v>23.470759</v>
+        <v>25.255732</v>
       </c>
       <c r="I11">
-        <v>0.3338258207244912</v>
+        <v>0.3426995496362334</v>
       </c>
       <c r="J11">
-        <v>0.3338258207244912</v>
+        <v>0.3426995496362334</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>5.086101999999999</v>
       </c>
       <c r="O11">
-        <v>0.2899010166908616</v>
+        <v>0.3619536680130181</v>
       </c>
       <c r="P11">
-        <v>0.2899010166908616</v>
+        <v>0.361953668013018</v>
       </c>
       <c r="Q11">
-        <v>13.26385269904644</v>
+        <v>14.27258100407378</v>
       </c>
       <c r="R11">
-        <v>119.374674291418</v>
+        <v>128.453229036664</v>
       </c>
       <c r="S11">
-        <v>0.09677644482569131</v>
+        <v>0.124041359017244</v>
       </c>
       <c r="T11">
-        <v>0.09677644482569131</v>
+        <v>0.124041359017244</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.823586333333332</v>
+        <v>8.418577333333333</v>
       </c>
       <c r="H12">
-        <v>23.470759</v>
+        <v>25.255732</v>
       </c>
       <c r="I12">
-        <v>0.3338258207244912</v>
+        <v>0.3426995496362334</v>
       </c>
       <c r="J12">
-        <v>0.3338258207244912</v>
+        <v>0.3426995496362334</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7463296666666667</v>
+        <v>0.9788929999999999</v>
       </c>
       <c r="N12">
-        <v>2.238989</v>
+        <v>2.936679</v>
       </c>
       <c r="O12">
-        <v>0.1276193807083805</v>
+        <v>0.2089894649825745</v>
       </c>
       <c r="P12">
-        <v>0.1276193807083805</v>
+        <v>0.2089894649825745</v>
       </c>
       <c r="Q12">
-        <v>5.838974580294555</v>
+        <v>8.240886421558665</v>
       </c>
       <c r="R12">
-        <v>52.55077122265099</v>
+        <v>74.167977794028</v>
       </c>
       <c r="S12">
-        <v>0.04260264450532644</v>
+        <v>0.07162059552824564</v>
       </c>
       <c r="T12">
-        <v>0.04260264450532644</v>
+        <v>0.07162059552824564</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.823586333333332</v>
+        <v>8.418577333333333</v>
       </c>
       <c r="H13">
-        <v>23.470759</v>
+        <v>25.255732</v>
       </c>
       <c r="I13">
-        <v>0.3338258207244912</v>
+        <v>0.3426995496362334</v>
       </c>
       <c r="J13">
-        <v>0.3338258207244912</v>
+        <v>0.3426995496362334</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.167891333333333</v>
+        <v>0.9083856666666668</v>
       </c>
       <c r="N13">
-        <v>6.503674</v>
+        <v>2.725157</v>
       </c>
       <c r="O13">
-        <v>0.3707007261800733</v>
+        <v>0.1939364511489059</v>
       </c>
       <c r="P13">
-        <v>0.3707007261800732</v>
+        <v>0.1939364511489059</v>
       </c>
       <c r="Q13">
-        <v>16.96068500761844</v>
+        <v>7.64731498332489</v>
       </c>
       <c r="R13">
-        <v>152.646165068566</v>
+        <v>68.82583484992401</v>
       </c>
       <c r="S13">
-        <v>0.1237494741602279</v>
+        <v>0.06646193446677943</v>
       </c>
       <c r="T13">
-        <v>0.1237494741602278</v>
+        <v>0.06646193446677942</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.319169666666667</v>
+        <v>2.426634333333333</v>
       </c>
       <c r="H14">
-        <v>6.957509</v>
+        <v>7.279902999999999</v>
       </c>
       <c r="I14">
-        <v>0.09895701081175239</v>
+        <v>0.09878230729940689</v>
       </c>
       <c r="J14">
-        <v>0.09895701081175239</v>
+        <v>0.09878230729940687</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.238502</v>
+        <v>1.101288666666667</v>
       </c>
       <c r="N14">
-        <v>3.715506</v>
+        <v>3.303866</v>
       </c>
       <c r="O14">
-        <v>0.2117788764206845</v>
+        <v>0.2351204158555016</v>
       </c>
       <c r="P14">
-        <v>0.2117788764206845</v>
+        <v>0.2351204158555016</v>
       </c>
       <c r="Q14">
-        <v>2.872296270506</v>
+        <v>2.672424889444222</v>
       </c>
       <c r="R14">
-        <v>25.850666434554</v>
+        <v>24.051824004998</v>
       </c>
       <c r="S14">
-        <v>0.02095700456366245</v>
+        <v>0.0232257371714025</v>
       </c>
       <c r="T14">
-        <v>0.02095700456366245</v>
+        <v>0.02322573717140249</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.319169666666667</v>
+        <v>2.426634333333333</v>
       </c>
       <c r="H15">
-        <v>6.957509</v>
+        <v>7.279902999999999</v>
       </c>
       <c r="I15">
-        <v>0.09895701081175239</v>
+        <v>0.09878230729940689</v>
       </c>
       <c r="J15">
-        <v>0.09895701081175239</v>
+        <v>0.09878230729940687</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>5.086101999999999</v>
       </c>
       <c r="O15">
-        <v>0.2899010166908616</v>
+        <v>0.3619536680130181</v>
       </c>
       <c r="P15">
-        <v>0.2899010166908616</v>
+        <v>0.361953668013018</v>
       </c>
       <c r="Q15">
-        <v>3.931844493324222</v>
+        <v>4.114036578678443</v>
       </c>
       <c r="R15">
-        <v>35.386600439918</v>
+        <v>37.02632920810599</v>
       </c>
       <c r="S15">
-        <v>0.0286877380430156</v>
+        <v>0.03575461846180945</v>
       </c>
       <c r="T15">
-        <v>0.0286877380430156</v>
+        <v>0.03575461846180945</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.319169666666667</v>
+        <v>2.426634333333333</v>
       </c>
       <c r="H16">
-        <v>6.957509</v>
+        <v>7.279902999999999</v>
       </c>
       <c r="I16">
-        <v>0.09895701081175239</v>
+        <v>0.09878230729940689</v>
       </c>
       <c r="J16">
-        <v>0.09895701081175239</v>
+        <v>0.09878230729940687</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.7463296666666667</v>
+        <v>0.9788929999999999</v>
       </c>
       <c r="N16">
-        <v>2.238989</v>
+        <v>2.936679</v>
       </c>
       <c r="O16">
-        <v>0.1276193807083805</v>
+        <v>0.2089894649825745</v>
       </c>
       <c r="P16">
-        <v>0.1276193807083805</v>
+        <v>0.2089894649825745</v>
       </c>
       <c r="Q16">
-        <v>1.730865124266778</v>
+        <v>2.375415362459666</v>
       </c>
       <c r="R16">
-        <v>15.577786118401</v>
+        <v>21.378738262137</v>
       </c>
       <c r="S16">
-        <v>0.01262883243654836</v>
+        <v>0.0206444615522473</v>
       </c>
       <c r="T16">
-        <v>0.01262883243654836</v>
+        <v>0.0206444615522473</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.319169666666667</v>
+        <v>2.426634333333333</v>
       </c>
       <c r="H17">
-        <v>6.957509</v>
+        <v>7.279902999999999</v>
       </c>
       <c r="I17">
-        <v>0.09895701081175239</v>
+        <v>0.09878230729940689</v>
       </c>
       <c r="J17">
-        <v>0.09895701081175239</v>
+        <v>0.09878230729940687</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.167891333333333</v>
+        <v>0.9083856666666668</v>
       </c>
       <c r="N17">
-        <v>6.503674</v>
+        <v>2.725157</v>
       </c>
       <c r="O17">
-        <v>0.3707007261800733</v>
+        <v>0.1939364511489059</v>
       </c>
       <c r="P17">
-        <v>0.3707007261800732</v>
+        <v>0.1939364511489059</v>
       </c>
       <c r="Q17">
-        <v>5.027707820896222</v>
+        <v>2.204319846641222</v>
       </c>
       <c r="R17">
-        <v>45.249370388066</v>
+        <v>19.838878619771</v>
       </c>
       <c r="S17">
-        <v>0.03668343576852597</v>
+        <v>0.01915749011394764</v>
       </c>
       <c r="T17">
-        <v>0.03668343576852597</v>
+        <v>0.01915749011394763</v>
       </c>
     </row>
   </sheetData>
